--- a/禄昌恒最终表格/2020/1月日报表.xlsx
+++ b/禄昌恒最终表格/2020/1月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>备注：</t>
   </si>
@@ -75,31 +75,99 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>3130PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3150PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP920001 订单号：CG201912130007</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZJ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2020-01-06</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZJ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30Pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP119011 订单号：CG201912190008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP111102 订单号：CG201912230028</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP960022  订单号：CG201912310001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP111112 订单号：CG201912260003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>490pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2020-01-02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>ZP328851 订单号：CG201912230028</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3130PCS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3150PCS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP920001 订单号：CG201912130007</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>30PCS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000PCS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110PCS</t>
+    <t>圣弗罗尔</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -107,7 +175,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>20PCS</t>
+    <t>计划2020-01-11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -115,7 +187,43 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>计划2020-01-05</t>
+    <t>计划2020-01-04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2020-01-07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划2020-01-03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zp920011／DS920L 订单号：CG201912310001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30pcs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518014 订单号：CG201912190008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>广运</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP960022</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5550Pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -123,71 +231,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2020-01-01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HX</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZJ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP111112 订单号：CG201912260003</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2020-01-02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP518014 订单号：CG201912190008</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>广运</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划2020-01-06</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZJ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zp920011／DS920L</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>30Pcs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP119011 订单号：CG201912190008</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣弗罗尔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP111102 订单号：CG201912230028</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣弗罗尔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ZP960022 </t>
+    <t>计划2020-01-20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2574pcs+590pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -449,6 +497,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,7 +806,7 @@
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,19 +821,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -802,196 +854,234 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>

--- a/禄昌恒最终表格/2020/1月日报表.xlsx
+++ b/禄昌恒最终表格/2020/1月日报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\禄昌恒\禄昌恒最终表格\2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16EEE67-5395-4296-9493-1B12A9F95F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>备注：</t>
   </si>
@@ -238,11 +244,47 @@
     <t>2574pcs+590pcs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>675PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>广运</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP528821 订单号:CG202001100016</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050PCS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣弗罗尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP138322 订单号:CG202001100024</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP518024 订单号:CG202001110015</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -802,25 +844,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.75" customWidth="1"/>
+    <col min="1" max="1" width="52.77734375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="56.125" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -835,7 +877,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -860,7 +902,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -883,7 +925,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -906,7 +948,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -929,7 +971,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -952,7 +994,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -975,7 +1017,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -998,7 +1040,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1063,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -1044,7 +1086,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -1067,7 +1109,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
@@ -1086,24 +1128,40 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1111,18 +1169,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1133,7 +1199,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1144,7 +1210,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1155,7 +1221,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1166,7 +1232,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1175,7 +1241,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1184,7 +1250,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1195,7 +1261,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1206,7 +1272,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1215,7 +1281,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1224,7 +1290,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1233,7 +1299,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1242,7 +1308,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1251,7 +1317,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1260,7 +1326,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1269,7 +1335,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1278,7 +1344,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1287,7 +1353,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1296,7 +1362,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1305,7 +1371,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1314,7 +1380,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1323,7 +1389,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
@@ -1332,7 +1398,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
@@ -1341,7 +1407,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
@@ -1350,7 +1416,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1359,7 +1425,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1368,7 +1434,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1377,7 +1443,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1386,7 +1452,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>

--- a/禄昌恒最终表格/2020/1月日报表.xlsx
+++ b/禄昌恒最终表格/2020/1月日报表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -169,7 +169,7 @@
     <t>计划2020-01-11</t>
   </si>
   <si>
-    <t>ZP960022</t>
+    <t>ZP960022 订单号:CG202001060014</t>
   </si>
   <si>
     <t>5550Pcs</t>
@@ -205,13 +205,40 @@
     <t>jx</t>
   </si>
   <si>
-    <t>ZP332602</t>
+    <t>ZP332602 订单号:CG202001130010</t>
   </si>
   <si>
     <t>120PCS</t>
   </si>
   <si>
     <t>待新资料</t>
+  </si>
+  <si>
+    <t>ZP519401 订单号:CG202001190003</t>
+  </si>
+  <si>
+    <t>5PCS</t>
+  </si>
+  <si>
+    <t>计划2020-01-20</t>
+  </si>
+  <si>
+    <t>ZP519112 订单号:CG202001150024</t>
+  </si>
+  <si>
+    <t>60PCS</t>
+  </si>
+  <si>
+    <t>ZP528821 订单号:CG202001150024</t>
+  </si>
+  <si>
+    <t>500PCS</t>
+  </si>
+  <si>
+    <t>ZP138322 订单号:CG202001150033</t>
+  </si>
+  <si>
+    <t>520PCS</t>
   </si>
 </sst>
 </file>
@@ -220,11 +247,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,15 +286,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,14 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +406,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,99 +427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -435,13 +455,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +575,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,145 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,6 +791,54 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,45 +875,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -863,25 +892,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,133 +910,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,12 +1077,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1393,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1664,7 +1684,9 @@
         <v>44</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="15" t="s">
         <v>45</v>
       </c>
@@ -1749,7 +1771,9 @@
         <v>56</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>57</v>
       </c>
@@ -1759,21 +1783,35 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="17"/>
@@ -1781,10 +1819,16 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -1792,10 +1836,16 @@
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
